--- a/data/excel_files/연_일본GDP.xlsx
+++ b/data/excel_files/연_일본GDP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52939D9-1225-DD42-BA1C-C89959927F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487BF1BB-768B-E44A-9D04-DA5AACA3C4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{45C84E4C-A8D6-C84F-A3E5-D8F116AD1E3E}"/>
+    <workbookView xWindow="17420" yWindow="9800" windowWidth="27900" windowHeight="16940" xr2:uid="{45C84E4C-A8D6-C84F-A3E5-D8F116AD1E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC6AE4-E874-C046-8885-1F4CE8813B5E}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -555,6 +555,14 @@
         <v>43642.659578999999</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>39048</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
